--- a/artfynd/A 25264-2020.xlsx
+++ b/artfynd/A 25264-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3015535</v>
+        <v>85681612</v>
       </c>
       <c r="B2" t="n">
-        <v>96333</v>
+        <v>55392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,50 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>208257</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Siggeforasjön, Upl</t>
+          <t>Siggeforasjön öst, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>620480.0184618242</v>
+        <v>620703.2845301379</v>
       </c>
       <c r="R2" t="n">
-        <v>6650653.458782602</v>
+        <v>6650915.221505931</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,22 +759,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -774,28 +783,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Katarina Sjöholm</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Katarina Sjöholm</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4219207</v>
+        <v>110602620</v>
       </c>
       <c r="B3" t="n">
-        <v>95518</v>
+        <v>55395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +818,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>208257</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Siggeforasjön, Upl</t>
+          <t>Siggeforasjön, O om, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>620480.0184618242</v>
+        <v>620647.3993695766</v>
       </c>
       <c r="R3" t="n">
-        <v>6650653.458782602</v>
+        <v>6650890.352745522</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +891,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +901,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,26 +917,31 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Skogsbilväg</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Ulf Arup</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Ulf Arup, Stefan Ekman, Wenche Eide</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5971707</v>
+        <v>3015535</v>
       </c>
       <c r="B4" t="n">
-        <v>96253</v>
+        <v>96333</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,23 +950,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223597</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1012,10 +1050,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85681612</v>
+        <v>4219207</v>
       </c>
       <c r="B5" t="n">
-        <v>55392</v>
+        <v>95518</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,46 +1066,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>208257</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Siggeforasjön öst, Upl</t>
+          <t>Siggeforasjön, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>620703.2845301379</v>
+        <v>620480.0184618242</v>
       </c>
       <c r="R5" t="n">
-        <v>6650915.221505931</v>
+        <v>6650653.458782602</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1091,22 +1120,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1115,29 +1144,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Katarina Sjöholm</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Katarina Sjöholm</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110602620</v>
+        <v>5971707</v>
       </c>
       <c r="B6" t="n">
-        <v>55395</v>
+        <v>96253</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,56 +1178,33 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>208257</v>
+        <v>223597</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Siggeforasjön, O om, Upl</t>
+          <t>Siggeforasjön, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>620647.3993695766</v>
+        <v>620480.0184618242</v>
       </c>
       <c r="R6" t="n">
-        <v>6650890.352745522</v>
+        <v>6650653.458782602</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1223,7 +1228,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1233,7 +1238,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1249,21 +1254,16 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Skogsbilväg</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ulf Arup</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ulf Arup, Stefan Ekman, Wenche Eide</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 25264-2020.xlsx
+++ b/artfynd/A 25264-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85681612</v>
+        <v>3015535</v>
       </c>
       <c r="B2" t="n">
-        <v>55392</v>
+        <v>96333</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,50 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208257</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Siggeforasjön öst, Upl</t>
+          <t>Siggeforasjön, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>620703.2845301379</v>
+        <v>620480.0184618242</v>
       </c>
       <c r="R2" t="n">
-        <v>6650915.221505931</v>
+        <v>6650653.458782602</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,22 +750,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -783,29 +774,28 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Katarina Sjöholm</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Katarina Sjöholm</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110602620</v>
+        <v>4219207</v>
       </c>
       <c r="B3" t="n">
-        <v>55395</v>
+        <v>95518</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,56 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>208257</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anguis fragilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Siggeforasjön, O om, Upl</t>
+          <t>Siggeforasjön, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>620647.3993695766</v>
+        <v>620480.0184618242</v>
       </c>
       <c r="R3" t="n">
-        <v>6650890.352745522</v>
+        <v>6650653.458782602</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -891,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -901,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -917,31 +888,26 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Skogsbilväg</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ulf Arup</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ulf Arup, Stefan Ekman, Wenche Eide</t>
+          <t>Sandra Lindström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3015535</v>
+        <v>5971707</v>
       </c>
       <c r="B4" t="n">
-        <v>96333</v>
+        <v>96253</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,27 +916,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>223597</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Jungfru marie nycklar</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
+          <t>Dactylorhiza maculata subsp. maculata</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1050,10 +1012,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4219207</v>
+        <v>85681612</v>
       </c>
       <c r="B5" t="n">
-        <v>95518</v>
+        <v>55392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,37 +1028,46 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>208257</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Anguis fragilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Siggeforasjön, Upl</t>
+          <t>Siggeforasjön öst, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>620480.0184618242</v>
+        <v>620703.2845301379</v>
       </c>
       <c r="R5" t="n">
-        <v>6650653.458782602</v>
+        <v>6650915.221505931</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1120,22 +1091,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1144,28 +1115,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Katarina Sjöholm</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Katarina Sjöholm</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5971707</v>
+        <v>110602620</v>
       </c>
       <c r="B6" t="n">
-        <v>96253</v>
+        <v>55395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,33 +1150,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>223597</v>
+        <v>208257</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jungfru marie nycklar</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. maculata</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Anguis fragilis</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Siggeforasjön, Upl</t>
+          <t>Siggeforasjön, O om, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>620480.0184618242</v>
+        <v>620647.3993695766</v>
       </c>
       <c r="R6" t="n">
-        <v>6650653.458782602</v>
+        <v>6650890.352745522</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,7 +1223,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1238,7 +1233,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2004-07-27</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1254,16 +1249,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Skogsbilväg</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Ulf Arup</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Sandra Lindström</t>
+          <t>Ulf Arup, Stefan Ekman, Wenche Eide</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
